--- a/medicine/Psychotrope/Côtes-de-la-charité/Côtes-de-la-charité.xlsx
+++ b/medicine/Psychotrope/Côtes-de-la-charité/Côtes-de-la-charité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-la-charit%C3%A9</t>
+          <t>Côtes-de-la-charité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le vignoble Côtes-de-la-Charité, anciennement Vin de Pays des Coteaux Charitois, est un vignoble français d'indication géographique protégée de zone, produit dans le département de la Nièvre.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-la-charit%C3%A9</t>
+          <t>Côtes-de-la-charité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture de la vigne est une activité ancienne de ce territoire puisque dès le Moyen Âge, la viticulture est présente. Le vin issu de ces vignobles est de bonne qualité. En effet, il est consommé à Paris et Arras à la table du Duc de Bourgogne. Les vignobles sont alors possédés par des abbayes comme celle de Bourras.
 Au milieu du XIXe siècle, la superficie de vigne sur la zone est de 1 400 hectares. Mais la crise du phyloxera va constituer une crise majeure pour ce vignoble.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-la-charit%C3%A9</t>
+          <t>Côtes-de-la-charité</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,13 +562,18 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Aire de l'IGP
-Zone principale[N 1]
-19 communes sont concernées dans la Nièvre : Arbourse, Beaumont-la-Ferrière, La Celle-sur-Nièvre, Champvoux, La Charité-sur-Loire, Chasnay, Châteauneuf-Val-de-Bargis, Chaulgnes, Dompierre-sur-Nièvre, Germigny-sur-Loire, La Marche, Murlin, Nannay, Narcy, Parigny-les-Vaux, Raveau, Saint-Aubin-les-Forges, Tronsanges et Varennes-lès-Narcy.
-Zone de proximité immédiate[N 2]
-Les communes de 4 cantons sont concernées dans la Nièvre : le canton de Donzy, le canton de Pouilly-sur-Loire, le canton de Prémery et le canton de Pougues-les-Eaux.
-Orographie et géologie
-Climat</t>
+          <t>Aire de l'IGP</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Zone principale[N 1]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19 communes sont concernées dans la Nièvre : Arbourse, Beaumont-la-Ferrière, La Celle-sur-Nièvre, Champvoux, La Charité-sur-Loire, Chasnay, Châteauneuf-Val-de-Bargis, Chaulgnes, Dompierre-sur-Nièvre, Germigny-sur-Loire, La Marche, Murlin, Nannay, Narcy, Parigny-les-Vaux, Raveau, Saint-Aubin-les-Forges, Tronsanges et Varennes-lès-Narcy.
+</t>
         </is>
       </c>
     </row>
@@ -564,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-la-charit%C3%A9</t>
+          <t>Côtes-de-la-charité</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,32 +598,264 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aire de l'IGP</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Zone de proximité immédiate[N 2]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les communes de 4 cantons sont concernées dans la Nièvre : le canton de Donzy, le canton de Pouilly-sur-Loire, le canton de Prémery et le canton de Pougues-les-Eaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Côtes-de-la-charité</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-la-charit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présentation
-Conditions de production
-Encépagement
-Cépages rouges
-Les cépages utilisés sont le gamay N et le pinot noir N.
-Cépages rosés
-Les cépages utilisés sont le pinot noir N, le pinot gris G et le gamay N.
-Cépages blancs
-Les cépages utilisés sont le sauvignon B, le chardonnay B, le pinot blanc B et le pinot gris G.
-Cépages gris
-Les cépages utilisés sont le pinot noir N, le pinot gris G et le gamay N.
-Types de vin
-Il existe 5 labellisations différentes :
-Côtes de la Charité blanc[1]
-Côtes de la Charité rosé[2]
-Côtes de la Charité rouge[3]
-Côtes de la Charité mousseux de qualité blanc[4]
-Côtes de la Charité mousseux de qualité rosé[5]
-Vin et gastronomie
-Production et structure des exploitations
-D'après le site IGP Val de Loire, le volume de production annuel moyen est de 1 580 hl et une dizaine de producteurs[6].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cépages rouges</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages utilisés sont le gamay N et le pinot noir N.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Côtes-de-la-charité</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-la-charit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cépages rosés</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages utilisés sont le pinot noir N, le pinot gris G et le gamay N.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Côtes-de-la-charité</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-la-charit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cépages blancs</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages utilisés sont le sauvignon B, le chardonnay B, le pinot blanc B et le pinot gris G.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Côtes-de-la-charité</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-la-charit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cépages gris</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages utilisés sont le pinot noir N, le pinot gris G et le gamay N.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Côtes-de-la-charité</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-la-charit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Types de vin</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Il existe 5 labellisations différentes :
+Côtes de la Charité blanc
+Côtes de la Charité rosé
+Côtes de la Charité rouge
+Côtes de la Charité mousseux de qualité blanc
+Côtes de la Charité mousseux de qualité rosé</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Côtes-de-la-charité</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-la-charit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Production et structure des exploitations</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après le site IGP Val de Loire, le volume de production annuel moyen est de 1 580 hl et une dizaine de producteurs.
 </t>
         </is>
       </c>
